--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -660,7 +660,7 @@
         <v>3756.95</v>
       </c>
       <c r="G2">
-        <v>0.8416666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="H2">
         <v>11526.56</v>
@@ -711,13 +711,13 @@
         <v>2.01</v>
       </c>
       <c r="X2">
-        <v>78.04083333333334</v>
+        <v>78.04000000000001</v>
       </c>
       <c r="Y2">
-        <v>7.881666666666667</v>
+        <v>7.88</v>
       </c>
       <c r="Z2">
-        <v>5.2275</v>
+        <v>5.23</v>
       </c>
       <c r="AA2">
         <v>100</v>
@@ -726,16 +726,16 @@
         <v>100</v>
       </c>
       <c r="AC2">
-        <v>45.91416666666666</v>
+        <v>45.91</v>
       </c>
       <c r="AD2">
-        <v>1.949166666666667</v>
+        <v>1.95</v>
       </c>
       <c r="AE2">
-        <v>8.867500000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AF2">
-        <v>1.964166666666667</v>
+        <v>1.96</v>
       </c>
       <c r="AG2">
         <v>100</v>
@@ -744,10 +744,10 @@
         <v>1.53</v>
       </c>
       <c r="AI2">
-        <v>1.964166666666667</v>
+        <v>1.96</v>
       </c>
       <c r="AJ2">
-        <v>0.04333333333333333</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -770,7 +770,7 @@
         <v>4931.67</v>
       </c>
       <c r="G3">
-        <v>0.8416666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="H3">
         <v>9140.66</v>
@@ -821,13 +821,13 @@
         <v>1.82</v>
       </c>
       <c r="X3">
-        <v>78.04083333333334</v>
+        <v>78.04000000000001</v>
       </c>
       <c r="Y3">
-        <v>7.881666666666667</v>
+        <v>7.88</v>
       </c>
       <c r="Z3">
-        <v>5.2275</v>
+        <v>5.23</v>
       </c>
       <c r="AA3">
         <v>100</v>
@@ -836,16 +836,16 @@
         <v>100</v>
       </c>
       <c r="AC3">
-        <v>45.91416666666666</v>
+        <v>45.91</v>
       </c>
       <c r="AD3">
-        <v>1.949166666666667</v>
+        <v>1.95</v>
       </c>
       <c r="AE3">
-        <v>8.867500000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AF3">
-        <v>1.964166666666667</v>
+        <v>1.96</v>
       </c>
       <c r="AG3">
         <v>100</v>
@@ -854,10 +854,10 @@
         <v>1.53</v>
       </c>
       <c r="AI3">
-        <v>1.964166666666667</v>
+        <v>1.96</v>
       </c>
       <c r="AJ3">
-        <v>0.04333333333333333</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -880,7 +880,7 @@
         <v>6251.43</v>
       </c>
       <c r="G4">
-        <v>0.8416666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="H4">
         <v>6816.93</v>
@@ -931,13 +931,13 @@
         <v>1.13</v>
       </c>
       <c r="X4">
-        <v>78.04083333333334</v>
+        <v>78.04000000000001</v>
       </c>
       <c r="Y4">
-        <v>7.881666666666667</v>
+        <v>7.88</v>
       </c>
       <c r="Z4">
-        <v>5.2275</v>
+        <v>5.23</v>
       </c>
       <c r="AA4">
         <v>100</v>
@@ -946,16 +946,16 @@
         <v>100</v>
       </c>
       <c r="AC4">
-        <v>45.91416666666666</v>
+        <v>45.91</v>
       </c>
       <c r="AD4">
-        <v>1.949166666666667</v>
+        <v>1.95</v>
       </c>
       <c r="AE4">
-        <v>8.867500000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AF4">
-        <v>1.964166666666667</v>
+        <v>1.96</v>
       </c>
       <c r="AG4">
         <v>100</v>
@@ -964,10 +964,10 @@
         <v>1.53</v>
       </c>
       <c r="AI4">
-        <v>1.964166666666667</v>
+        <v>1.96</v>
       </c>
       <c r="AJ4">
-        <v>0.04333333333333333</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:36">
